--- a/COMPASS_pred/11113.xlsx
+++ b/COMPASS_pred/11113.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pion_qT/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/workspace/misc/COMPASS_pred/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA0074-2A7F-9F4E-A0F8-F772B8B312A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741853C1-190D-A649-9B40-A99272331409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="2740" windowWidth="26040" windowHeight="14940" xr2:uid="{C2657746-CE9A-664B-92F2-D8A832601E50}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>pi_minus</t>
   </si>
   <si>
-    <t>nb/nucleon/GeV</t>
-  </si>
-  <si>
     <t>pT_min</t>
   </si>
   <si>
@@ -95,12 +92,15 @@
   <si>
     <t>d2sigma/dpTdM</t>
   </si>
+  <si>
+    <t>nb/nucleon/GeV^2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +113,12 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,15 +467,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C492BB1-6206-CB4E-B765-6571DB173881}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N160" sqref="N158:N160"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="M165" sqref="M165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -489,16 +495,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -530,7 +536,7 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>4.7</v>
@@ -554,7 +560,7 @@
         <v>-0.1</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -563,7 +569,7 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -583,7 +589,7 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>4.7</v>
@@ -607,7 +613,7 @@
         <v>-0.1</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -616,7 +622,7 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -636,7 +642,7 @@
         <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>4.7</v>
@@ -660,7 +666,7 @@
         <v>-0.1</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -669,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -689,7 +695,7 @@
         <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>4.7</v>
@@ -713,7 +719,7 @@
         <v>-0.1</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -722,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -742,7 +748,7 @@
         <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>4.7</v>
@@ -766,7 +772,7 @@
         <v>-0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -775,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -795,7 +801,7 @@
         <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>4.7</v>
@@ -819,7 +825,7 @@
         <v>-0.1</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -828,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -848,7 +854,7 @@
         <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>4.7</v>
@@ -872,7 +878,7 @@
         <v>-0.1</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -881,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -901,7 +907,7 @@
         <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>4.7</v>
@@ -925,7 +931,7 @@
         <v>-0.1</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -934,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -954,7 +960,7 @@
         <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>4.7</v>
@@ -978,7 +984,7 @@
         <v>-0.1</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -987,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1007,7 +1013,7 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>4.7</v>
@@ -1031,7 +1037,7 @@
         <v>-0.1</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1040,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1060,7 +1066,7 @@
         <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>4.7</v>
@@ -1084,7 +1090,7 @@
         <v>-0.1</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -1093,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1113,7 +1119,7 @@
         <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>4.7</v>
@@ -1137,7 +1143,7 @@
         <v>-0.1</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
@@ -1146,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1166,7 +1172,7 @@
         <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>4.7</v>
@@ -1190,7 +1196,7 @@
         <v>-0.1</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
@@ -1199,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1219,7 +1225,7 @@
         <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>4.7</v>
@@ -1243,7 +1249,7 @@
         <v>-0.1</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
@@ -1252,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1272,7 +1278,7 @@
         <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>4.7</v>
@@ -1296,7 +1302,7 @@
         <v>-0.1</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
@@ -1305,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1325,7 +1331,7 @@
         <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>4.7</v>
@@ -1349,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
         <v>14</v>
@@ -1358,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1378,7 +1384,7 @@
         <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>4.7</v>
@@ -1402,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
@@ -1411,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1431,7 +1437,7 @@
         <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>4.7</v>
@@ -1455,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
@@ -1464,7 +1470,7 @@
         <v>15</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1484,7 +1490,7 @@
         <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>4.7</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
         <v>14</v>
@@ -1517,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1537,7 +1543,7 @@
         <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>4.7</v>
@@ -1561,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
@@ -1570,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1590,7 +1596,7 @@
         <v>190</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>4.7</v>
@@ -1614,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
         <v>14</v>
@@ -1623,7 +1629,7 @@
         <v>15</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1643,7 +1649,7 @@
         <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>4.7</v>
@@ -1667,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
@@ -1676,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1696,7 +1702,7 @@
         <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>4.7</v>
@@ -1720,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
@@ -1729,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1749,7 +1755,7 @@
         <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>4.7</v>
@@ -1773,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
         <v>14</v>
@@ -1782,7 +1788,7 @@
         <v>15</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1802,7 +1808,7 @@
         <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>4.7</v>
@@ -1826,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
         <v>14</v>
@@ -1835,7 +1841,7 @@
         <v>15</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1855,7 +1861,7 @@
         <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>4.7</v>
@@ -1879,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
@@ -1888,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1908,7 +1914,7 @@
         <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>4.7</v>
@@ -1932,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
         <v>14</v>
@@ -1941,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1961,7 +1967,7 @@
         <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>4.7</v>
@@ -1985,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
@@ -1994,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2014,7 +2020,7 @@
         <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>4.7</v>
@@ -2038,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
@@ -2047,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2067,7 +2073,7 @@
         <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>4.7</v>
@@ -2091,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
@@ -2100,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2120,7 +2126,7 @@
         <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>4.7</v>
@@ -2144,7 +2150,7 @@
         <v>0.1</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
@@ -2153,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2173,7 +2179,7 @@
         <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>4.7</v>
@@ -2197,7 +2203,7 @@
         <v>0.1</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
@@ -2206,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2226,7 +2232,7 @@
         <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>4.7</v>
@@ -2250,7 +2256,7 @@
         <v>0.1</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
         <v>14</v>
@@ -2259,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2279,7 +2285,7 @@
         <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>4.7</v>
@@ -2303,7 +2309,7 @@
         <v>0.1</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
         <v>14</v>
@@ -2312,7 +2318,7 @@
         <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2332,7 +2338,7 @@
         <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>4.7</v>
@@ -2356,7 +2362,7 @@
         <v>0.1</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
         <v>14</v>
@@ -2365,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2385,7 +2391,7 @@
         <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>4.7</v>
@@ -2409,7 +2415,7 @@
         <v>0.1</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
         <v>14</v>
@@ -2418,7 +2424,7 @@
         <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2438,7 +2444,7 @@
         <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>4.7</v>
@@ -2462,7 +2468,7 @@
         <v>0.1</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
@@ -2471,7 +2477,7 @@
         <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2491,7 +2497,7 @@
         <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>4.7</v>
@@ -2515,7 +2521,7 @@
         <v>0.1</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
@@ -2524,7 +2530,7 @@
         <v>15</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2544,7 +2550,7 @@
         <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>4.7</v>
@@ -2568,7 +2574,7 @@
         <v>0.1</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>14</v>
@@ -2577,7 +2583,7 @@
         <v>15</v>
       </c>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2597,7 +2603,7 @@
         <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>4.7</v>
@@ -2621,7 +2627,7 @@
         <v>0.1</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
         <v>14</v>
@@ -2630,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="M41" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2650,7 +2656,7 @@
         <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>4.7</v>
@@ -2674,7 +2680,7 @@
         <v>0.1</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
         <v>14</v>
@@ -2683,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="M42" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2703,7 +2709,7 @@
         <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43">
         <v>4.7</v>
@@ -2727,7 +2733,7 @@
         <v>0.1</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
         <v>14</v>
@@ -2736,7 +2742,7 @@
         <v>15</v>
       </c>
       <c r="M43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2756,7 +2762,7 @@
         <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>4.7</v>
@@ -2780,7 +2786,7 @@
         <v>0.1</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
         <v>14</v>
@@ -2789,7 +2795,7 @@
         <v>15</v>
       </c>
       <c r="M44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2809,7 +2815,7 @@
         <v>190</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>4.7</v>
@@ -2833,7 +2839,7 @@
         <v>0.1</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
         <v>14</v>
@@ -2842,7 +2848,7 @@
         <v>15</v>
       </c>
       <c r="M45" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2862,7 +2868,7 @@
         <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>4.7</v>
@@ -2886,7 +2892,7 @@
         <v>0.1</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
         <v>14</v>
@@ -2895,7 +2901,7 @@
         <v>15</v>
       </c>
       <c r="M46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2915,7 +2921,7 @@
         <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>4.7</v>
@@ -2939,7 +2945,7 @@
         <v>0.2</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
         <v>14</v>
@@ -2948,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="M47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2968,7 +2974,7 @@
         <v>190</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>4.7</v>
@@ -2992,7 +2998,7 @@
         <v>0.2</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
         <v>14</v>
@@ -3001,7 +3007,7 @@
         <v>15</v>
       </c>
       <c r="M48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3021,7 +3027,7 @@
         <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>4.7</v>
@@ -3045,7 +3051,7 @@
         <v>0.2</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
         <v>14</v>
@@ -3054,7 +3060,7 @@
         <v>15</v>
       </c>
       <c r="M49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3074,7 +3080,7 @@
         <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>4.7</v>
@@ -3098,7 +3104,7 @@
         <v>0.2</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
         <v>14</v>
@@ -3107,7 +3113,7 @@
         <v>15</v>
       </c>
       <c r="M50" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3127,7 +3133,7 @@
         <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>4.7</v>
@@ -3151,7 +3157,7 @@
         <v>0.2</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
         <v>14</v>
@@ -3160,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="M51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3180,7 +3186,7 @@
         <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>4.7</v>
@@ -3204,7 +3210,7 @@
         <v>0.2</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
         <v>14</v>
@@ -3213,7 +3219,7 @@
         <v>15</v>
       </c>
       <c r="M52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3233,7 +3239,7 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>4.7</v>
@@ -3257,7 +3263,7 @@
         <v>0.2</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
         <v>14</v>
@@ -3266,7 +3272,7 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3286,7 +3292,7 @@
         <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>4.7</v>
@@ -3310,7 +3316,7 @@
         <v>0.2</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
         <v>14</v>
@@ -3319,7 +3325,7 @@
         <v>15</v>
       </c>
       <c r="M54" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3339,7 +3345,7 @@
         <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>4.7</v>
@@ -3363,7 +3369,7 @@
         <v>0.2</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
         <v>14</v>
@@ -3372,7 +3378,7 @@
         <v>15</v>
       </c>
       <c r="M55" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3392,7 +3398,7 @@
         <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <v>4.7</v>
@@ -3416,7 +3422,7 @@
         <v>0.2</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
         <v>14</v>
@@ -3425,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="M56" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3445,7 +3451,7 @@
         <v>190</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>4.7</v>
@@ -3469,7 +3475,7 @@
         <v>0.2</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
         <v>14</v>
@@ -3478,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="M57" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3498,7 +3504,7 @@
         <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>4.7</v>
@@ -3522,7 +3528,7 @@
         <v>0.2</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
         <v>14</v>
@@ -3531,7 +3537,7 @@
         <v>15</v>
       </c>
       <c r="M58" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3551,7 +3557,7 @@
         <v>190</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>4.7</v>
@@ -3575,7 +3581,7 @@
         <v>0.2</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
         <v>14</v>
@@ -3584,7 +3590,7 @@
         <v>15</v>
       </c>
       <c r="M59" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3604,7 +3610,7 @@
         <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>4.7</v>
@@ -3628,7 +3634,7 @@
         <v>0.2</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
         <v>14</v>
@@ -3637,7 +3643,7 @@
         <v>15</v>
       </c>
       <c r="M60" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3657,7 +3663,7 @@
         <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>4.7</v>
@@ -3681,7 +3687,7 @@
         <v>0.2</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
         <v>14</v>
@@ -3690,7 +3696,7 @@
         <v>15</v>
       </c>
       <c r="M61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3710,7 +3716,7 @@
         <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>4.7</v>
@@ -3734,7 +3740,7 @@
         <v>0.3</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
         <v>14</v>
@@ -3743,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="M62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3763,7 +3769,7 @@
         <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>4.7</v>
@@ -3787,7 +3793,7 @@
         <v>0.3</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
         <v>14</v>
@@ -3796,7 +3802,7 @@
         <v>15</v>
       </c>
       <c r="M63" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3816,7 +3822,7 @@
         <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>4.7</v>
@@ -3840,7 +3846,7 @@
         <v>0.3</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
         <v>14</v>
@@ -3849,7 +3855,7 @@
         <v>15</v>
       </c>
       <c r="M64" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3869,7 +3875,7 @@
         <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>4.7</v>
@@ -3893,7 +3899,7 @@
         <v>0.3</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
         <v>14</v>
@@ -3902,7 +3908,7 @@
         <v>15</v>
       </c>
       <c r="M65" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3922,7 +3928,7 @@
         <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66">
         <v>4.7</v>
@@ -3946,7 +3952,7 @@
         <v>0.3</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
         <v>14</v>
@@ -3955,7 +3961,7 @@
         <v>15</v>
       </c>
       <c r="M66" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3975,7 +3981,7 @@
         <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>4.7</v>
@@ -3999,7 +4005,7 @@
         <v>0.3</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
         <v>14</v>
@@ -4008,7 +4014,7 @@
         <v>15</v>
       </c>
       <c r="M67" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4028,7 +4034,7 @@
         <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68">
         <v>4.7</v>
@@ -4052,7 +4058,7 @@
         <v>0.3</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
         <v>14</v>
@@ -4061,7 +4067,7 @@
         <v>15</v>
       </c>
       <c r="M68" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4081,7 +4087,7 @@
         <v>190</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>4.7</v>
@@ -4105,7 +4111,7 @@
         <v>0.3</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
         <v>14</v>
@@ -4114,7 +4120,7 @@
         <v>15</v>
       </c>
       <c r="M69" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -4134,7 +4140,7 @@
         <v>190</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>4.7</v>
@@ -4158,7 +4164,7 @@
         <v>0.3</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
         <v>14</v>
@@ -4167,7 +4173,7 @@
         <v>15</v>
       </c>
       <c r="M70" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4187,7 +4193,7 @@
         <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71">
         <v>4.7</v>
@@ -4211,7 +4217,7 @@
         <v>0.3</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K71" t="s">
         <v>14</v>
@@ -4220,7 +4226,7 @@
         <v>15</v>
       </c>
       <c r="M71" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4240,7 +4246,7 @@
         <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72">
         <v>4.7</v>
@@ -4264,7 +4270,7 @@
         <v>0.3</v>
       </c>
       <c r="J72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
         <v>14</v>
@@ -4273,7 +4279,7 @@
         <v>15</v>
       </c>
       <c r="M72" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4293,7 +4299,7 @@
         <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73">
         <v>4.7</v>
@@ -4317,7 +4323,7 @@
         <v>0.3</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
         <v>14</v>
@@ -4326,7 +4332,7 @@
         <v>15</v>
       </c>
       <c r="M73" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4346,7 +4352,7 @@
         <v>190</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74">
         <v>4.7</v>
@@ -4370,7 +4376,7 @@
         <v>0.3</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
         <v>14</v>
@@ -4379,7 +4385,7 @@
         <v>15</v>
       </c>
       <c r="M74" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -4399,7 +4405,7 @@
         <v>190</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75">
         <v>4.7</v>
@@ -4423,7 +4429,7 @@
         <v>0.3</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
         <v>14</v>
@@ -4432,7 +4438,7 @@
         <v>15</v>
       </c>
       <c r="M75" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -4452,7 +4458,7 @@
         <v>190</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76">
         <v>4.7</v>
@@ -4476,7 +4482,7 @@
         <v>0.3</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
         <v>14</v>
@@ -4485,7 +4491,7 @@
         <v>15</v>
       </c>
       <c r="M76" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -4505,7 +4511,7 @@
         <v>190</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77">
         <v>4.7</v>
@@ -4529,7 +4535,7 @@
         <v>0.4</v>
       </c>
       <c r="J77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
         <v>14</v>
@@ -4538,7 +4544,7 @@
         <v>15</v>
       </c>
       <c r="M77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -4558,7 +4564,7 @@
         <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78">
         <v>4.7</v>
@@ -4582,7 +4588,7 @@
         <v>0.4</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
         <v>14</v>
@@ -4591,7 +4597,7 @@
         <v>15</v>
       </c>
       <c r="M78" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -4611,7 +4617,7 @@
         <v>190</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>4.7</v>
@@ -4635,7 +4641,7 @@
         <v>0.4</v>
       </c>
       <c r="J79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K79" t="s">
         <v>14</v>
@@ -4644,7 +4650,7 @@
         <v>15</v>
       </c>
       <c r="M79" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -4664,7 +4670,7 @@
         <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>4.7</v>
@@ -4688,7 +4694,7 @@
         <v>0.4</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
         <v>14</v>
@@ -4697,7 +4703,7 @@
         <v>15</v>
       </c>
       <c r="M80" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -4717,7 +4723,7 @@
         <v>190</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81">
         <v>4.7</v>
@@ -4741,7 +4747,7 @@
         <v>0.4</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>14</v>
@@ -4750,7 +4756,7 @@
         <v>15</v>
       </c>
       <c r="M81" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -4770,7 +4776,7 @@
         <v>190</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82">
         <v>4.7</v>
@@ -4794,7 +4800,7 @@
         <v>0.4</v>
       </c>
       <c r="J82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
         <v>14</v>
@@ -4803,7 +4809,7 @@
         <v>15</v>
       </c>
       <c r="M82" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -4823,7 +4829,7 @@
         <v>190</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83">
         <v>4.7</v>
@@ -4847,7 +4853,7 @@
         <v>0.4</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
         <v>14</v>
@@ -4856,7 +4862,7 @@
         <v>15</v>
       </c>
       <c r="M83" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4876,7 +4882,7 @@
         <v>190</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84">
         <v>4.7</v>
@@ -4900,7 +4906,7 @@
         <v>0.4</v>
       </c>
       <c r="J84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
         <v>14</v>
@@ -4909,7 +4915,7 @@
         <v>15</v>
       </c>
       <c r="M84" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -4929,7 +4935,7 @@
         <v>190</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85">
         <v>4.7</v>
@@ -4953,7 +4959,7 @@
         <v>0.4</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
         <v>14</v>
@@ -4962,7 +4968,7 @@
         <v>15</v>
       </c>
       <c r="M85" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -4982,7 +4988,7 @@
         <v>190</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86">
         <v>4.7</v>
@@ -5006,7 +5012,7 @@
         <v>0.4</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
         <v>14</v>
@@ -5015,7 +5021,7 @@
         <v>15</v>
       </c>
       <c r="M86" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -5035,7 +5041,7 @@
         <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87">
         <v>4.7</v>
@@ -5059,7 +5065,7 @@
         <v>0.4</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K87" t="s">
         <v>14</v>
@@ -5068,7 +5074,7 @@
         <v>15</v>
       </c>
       <c r="M87" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -5088,7 +5094,7 @@
         <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88">
         <v>4.7</v>
@@ -5112,7 +5118,7 @@
         <v>0.4</v>
       </c>
       <c r="J88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K88" t="s">
         <v>14</v>
@@ -5121,7 +5127,7 @@
         <v>15</v>
       </c>
       <c r="M88" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -5141,7 +5147,7 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89">
         <v>4.7</v>
@@ -5165,7 +5171,7 @@
         <v>0.4</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
         <v>14</v>
@@ -5174,7 +5180,7 @@
         <v>15</v>
       </c>
       <c r="M89" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -5194,7 +5200,7 @@
         <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90">
         <v>4.7</v>
@@ -5218,7 +5224,7 @@
         <v>0.4</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
         <v>14</v>
@@ -5227,7 +5233,7 @@
         <v>15</v>
       </c>
       <c r="M90" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -5247,7 +5253,7 @@
         <v>190</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91">
         <v>4.7</v>
@@ -5271,7 +5277,7 @@
         <v>0.4</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" t="s">
         <v>14</v>
@@ -5280,7 +5286,7 @@
         <v>15</v>
       </c>
       <c r="M91" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -5300,7 +5306,7 @@
         <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C92">
         <v>4.7</v>
@@ -5324,7 +5330,7 @@
         <v>0.5</v>
       </c>
       <c r="J92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K92" t="s">
         <v>14</v>
@@ -5333,7 +5339,7 @@
         <v>15</v>
       </c>
       <c r="M92" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -5353,7 +5359,7 @@
         <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C93">
         <v>4.7</v>
@@ -5377,7 +5383,7 @@
         <v>0.5</v>
       </c>
       <c r="J93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K93" t="s">
         <v>14</v>
@@ -5386,7 +5392,7 @@
         <v>15</v>
       </c>
       <c r="M93" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -5406,7 +5412,7 @@
         <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94">
         <v>4.7</v>
@@ -5430,7 +5436,7 @@
         <v>0.5</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
         <v>14</v>
@@ -5439,7 +5445,7 @@
         <v>15</v>
       </c>
       <c r="M94" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -5459,7 +5465,7 @@
         <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C95">
         <v>4.7</v>
@@ -5483,7 +5489,7 @@
         <v>0.5</v>
       </c>
       <c r="J95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
         <v>14</v>
@@ -5492,7 +5498,7 @@
         <v>15</v>
       </c>
       <c r="M95" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -5512,7 +5518,7 @@
         <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96">
         <v>4.7</v>
@@ -5536,7 +5542,7 @@
         <v>0.5</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
         <v>14</v>
@@ -5545,7 +5551,7 @@
         <v>15</v>
       </c>
       <c r="M96" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -5565,7 +5571,7 @@
         <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C97">
         <v>4.7</v>
@@ -5589,7 +5595,7 @@
         <v>0.5</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
         <v>14</v>
@@ -5598,7 +5604,7 @@
         <v>15</v>
       </c>
       <c r="M97" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -5618,7 +5624,7 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <v>4.7</v>
@@ -5642,7 +5648,7 @@
         <v>0.5</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K98" t="s">
         <v>14</v>
@@ -5651,7 +5657,7 @@
         <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -5671,7 +5677,7 @@
         <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C99">
         <v>4.7</v>
@@ -5695,7 +5701,7 @@
         <v>0.5</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K99" t="s">
         <v>14</v>
@@ -5704,7 +5710,7 @@
         <v>15</v>
       </c>
       <c r="M99" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -5724,7 +5730,7 @@
         <v>190</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C100">
         <v>4.7</v>
@@ -5748,7 +5754,7 @@
         <v>0.5</v>
       </c>
       <c r="J100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K100" t="s">
         <v>14</v>
@@ -5757,7 +5763,7 @@
         <v>15</v>
       </c>
       <c r="M100" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5777,7 +5783,7 @@
         <v>190</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C101">
         <v>4.7</v>
@@ -5801,7 +5807,7 @@
         <v>0.5</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
         <v>14</v>
@@ -5810,7 +5816,7 @@
         <v>15</v>
       </c>
       <c r="M101" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -5830,7 +5836,7 @@
         <v>190</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C102">
         <v>4.7</v>
@@ -5854,7 +5860,7 @@
         <v>0.5</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K102" t="s">
         <v>14</v>
@@ -5863,7 +5869,7 @@
         <v>15</v>
       </c>
       <c r="M102" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -5883,7 +5889,7 @@
         <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103">
         <v>4.7</v>
@@ -5907,7 +5913,7 @@
         <v>0.5</v>
       </c>
       <c r="J103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K103" t="s">
         <v>14</v>
@@ -5916,7 +5922,7 @@
         <v>15</v>
       </c>
       <c r="M103" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -5936,7 +5942,7 @@
         <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C104">
         <v>4.7</v>
@@ -5960,7 +5966,7 @@
         <v>0.5</v>
       </c>
       <c r="J104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K104" t="s">
         <v>14</v>
@@ -5969,7 +5975,7 @@
         <v>15</v>
       </c>
       <c r="M104" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -5989,7 +5995,7 @@
         <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C105">
         <v>4.7</v>
@@ -6013,7 +6019,7 @@
         <v>0.5</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K105" t="s">
         <v>14</v>
@@ -6022,7 +6028,7 @@
         <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -6042,7 +6048,7 @@
         <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C106">
         <v>4.7</v>
@@ -6066,7 +6072,7 @@
         <v>0.5</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K106" t="s">
         <v>14</v>
@@ -6075,7 +6081,7 @@
         <v>15</v>
       </c>
       <c r="M106" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -6095,7 +6101,7 @@
         <v>190</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <v>4.7</v>
@@ -6119,7 +6125,7 @@
         <v>0.6</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K107" t="s">
         <v>14</v>
@@ -6128,7 +6134,7 @@
         <v>15</v>
       </c>
       <c r="M107" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -6148,7 +6154,7 @@
         <v>190</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108">
         <v>4.7</v>
@@ -6172,7 +6178,7 @@
         <v>0.6</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K108" t="s">
         <v>14</v>
@@ -6181,7 +6187,7 @@
         <v>15</v>
       </c>
       <c r="M108" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -6201,7 +6207,7 @@
         <v>190</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C109">
         <v>4.7</v>
@@ -6225,7 +6231,7 @@
         <v>0.6</v>
       </c>
       <c r="J109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K109" t="s">
         <v>14</v>
@@ -6234,7 +6240,7 @@
         <v>15</v>
       </c>
       <c r="M109" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -6254,7 +6260,7 @@
         <v>190</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C110">
         <v>4.7</v>
@@ -6278,7 +6284,7 @@
         <v>0.6</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K110" t="s">
         <v>14</v>
@@ -6287,7 +6293,7 @@
         <v>15</v>
       </c>
       <c r="M110" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -6307,7 +6313,7 @@
         <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C111">
         <v>4.7</v>
@@ -6331,7 +6337,7 @@
         <v>0.6</v>
       </c>
       <c r="J111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K111" t="s">
         <v>14</v>
@@ -6340,7 +6346,7 @@
         <v>15</v>
       </c>
       <c r="M111" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -6360,7 +6366,7 @@
         <v>190</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C112">
         <v>4.7</v>
@@ -6384,7 +6390,7 @@
         <v>0.6</v>
       </c>
       <c r="J112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K112" t="s">
         <v>14</v>
@@ -6393,7 +6399,7 @@
         <v>15</v>
       </c>
       <c r="M112" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -6413,7 +6419,7 @@
         <v>190</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C113">
         <v>4.7</v>
@@ -6437,7 +6443,7 @@
         <v>0.6</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K113" t="s">
         <v>14</v>
@@ -6446,7 +6452,7 @@
         <v>15</v>
       </c>
       <c r="M113" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -6466,7 +6472,7 @@
         <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114">
         <v>4.7</v>
@@ -6490,7 +6496,7 @@
         <v>0.6</v>
       </c>
       <c r="J114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K114" t="s">
         <v>14</v>
@@ -6499,7 +6505,7 @@
         <v>15</v>
       </c>
       <c r="M114" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -6519,7 +6525,7 @@
         <v>190</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C115">
         <v>4.7</v>
@@ -6543,7 +6549,7 @@
         <v>0.6</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
         <v>14</v>
@@ -6552,7 +6558,7 @@
         <v>15</v>
       </c>
       <c r="M115" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -6572,7 +6578,7 @@
         <v>190</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116">
         <v>4.7</v>
@@ -6596,7 +6602,7 @@
         <v>0.6</v>
       </c>
       <c r="J116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K116" t="s">
         <v>14</v>
@@ -6605,7 +6611,7 @@
         <v>15</v>
       </c>
       <c r="M116" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -6625,7 +6631,7 @@
         <v>190</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C117">
         <v>4.7</v>
@@ -6649,7 +6655,7 @@
         <v>0.6</v>
       </c>
       <c r="J117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K117" t="s">
         <v>14</v>
@@ -6658,7 +6664,7 @@
         <v>15</v>
       </c>
       <c r="M117" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -6678,7 +6684,7 @@
         <v>190</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C118">
         <v>4.7</v>
@@ -6702,7 +6708,7 @@
         <v>0.6</v>
       </c>
       <c r="J118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K118" t="s">
         <v>14</v>
@@ -6711,7 +6717,7 @@
         <v>15</v>
       </c>
       <c r="M118" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -6731,7 +6737,7 @@
         <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C119">
         <v>4.7</v>
@@ -6755,7 +6761,7 @@
         <v>0.6</v>
       </c>
       <c r="J119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K119" t="s">
         <v>14</v>
@@ -6764,7 +6770,7 @@
         <v>15</v>
       </c>
       <c r="M119" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -6784,7 +6790,7 @@
         <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120">
         <v>4.7</v>
@@ -6808,7 +6814,7 @@
         <v>0.6</v>
       </c>
       <c r="J120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K120" t="s">
         <v>14</v>
@@ -6817,7 +6823,7 @@
         <v>15</v>
       </c>
       <c r="M120" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -6837,7 +6843,7 @@
         <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121">
         <v>4.7</v>
@@ -6861,7 +6867,7 @@
         <v>0.6</v>
       </c>
       <c r="J121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K121" t="s">
         <v>14</v>
@@ -6870,7 +6876,7 @@
         <v>15</v>
       </c>
       <c r="M121" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -6890,7 +6896,7 @@
         <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122">
         <v>4.7</v>
@@ -6914,7 +6920,7 @@
         <v>0.7</v>
       </c>
       <c r="J122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K122" t="s">
         <v>14</v>
@@ -6923,7 +6929,7 @@
         <v>15</v>
       </c>
       <c r="M122" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -6943,7 +6949,7 @@
         <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123">
         <v>4.7</v>
@@ -6967,7 +6973,7 @@
         <v>0.7</v>
       </c>
       <c r="J123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K123" t="s">
         <v>14</v>
@@ -6976,7 +6982,7 @@
         <v>15</v>
       </c>
       <c r="M123" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -6996,7 +7002,7 @@
         <v>190</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124">
         <v>4.7</v>
@@ -7020,7 +7026,7 @@
         <v>0.7</v>
       </c>
       <c r="J124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K124" t="s">
         <v>14</v>
@@ -7029,7 +7035,7 @@
         <v>15</v>
       </c>
       <c r="M124" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7049,7 +7055,7 @@
         <v>190</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C125">
         <v>4.7</v>
@@ -7073,7 +7079,7 @@
         <v>0.7</v>
       </c>
       <c r="J125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K125" t="s">
         <v>14</v>
@@ -7082,7 +7088,7 @@
         <v>15</v>
       </c>
       <c r="M125" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7102,7 +7108,7 @@
         <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126">
         <v>4.7</v>
@@ -7126,7 +7132,7 @@
         <v>0.7</v>
       </c>
       <c r="J126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K126" t="s">
         <v>14</v>
@@ -7135,7 +7141,7 @@
         <v>15</v>
       </c>
       <c r="M126" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7155,7 +7161,7 @@
         <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C127">
         <v>4.7</v>
@@ -7179,7 +7185,7 @@
         <v>0.7</v>
       </c>
       <c r="J127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K127" t="s">
         <v>14</v>
@@ -7188,7 +7194,7 @@
         <v>15</v>
       </c>
       <c r="M127" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7208,7 +7214,7 @@
         <v>190</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C128">
         <v>4.7</v>
@@ -7232,7 +7238,7 @@
         <v>0.7</v>
       </c>
       <c r="J128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K128" t="s">
         <v>14</v>
@@ -7241,7 +7247,7 @@
         <v>15</v>
       </c>
       <c r="M128" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7261,7 +7267,7 @@
         <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C129">
         <v>4.7</v>
@@ -7285,7 +7291,7 @@
         <v>0.7</v>
       </c>
       <c r="J129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K129" t="s">
         <v>14</v>
@@ -7294,7 +7300,7 @@
         <v>15</v>
       </c>
       <c r="M129" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7314,7 +7320,7 @@
         <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C130">
         <v>4.7</v>
@@ -7338,7 +7344,7 @@
         <v>0.7</v>
       </c>
       <c r="J130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K130" t="s">
         <v>14</v>
@@ -7347,7 +7353,7 @@
         <v>15</v>
       </c>
       <c r="M130" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -7367,7 +7373,7 @@
         <v>190</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C131">
         <v>4.7</v>
@@ -7391,7 +7397,7 @@
         <v>0.7</v>
       </c>
       <c r="J131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K131" t="s">
         <v>14</v>
@@ -7400,7 +7406,7 @@
         <v>15</v>
       </c>
       <c r="M131" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -7420,7 +7426,7 @@
         <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C132">
         <v>4.7</v>
@@ -7444,7 +7450,7 @@
         <v>0.7</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K132" t="s">
         <v>14</v>
@@ -7453,7 +7459,7 @@
         <v>15</v>
       </c>
       <c r="M132" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -7473,7 +7479,7 @@
         <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C133">
         <v>4.7</v>
@@ -7497,7 +7503,7 @@
         <v>0.7</v>
       </c>
       <c r="J133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K133" t="s">
         <v>14</v>
@@ -7506,7 +7512,7 @@
         <v>15</v>
       </c>
       <c r="M133" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -7526,7 +7532,7 @@
         <v>190</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C134">
         <v>4.7</v>
@@ -7550,7 +7556,7 @@
         <v>0.7</v>
       </c>
       <c r="J134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K134" t="s">
         <v>14</v>
@@ -7559,7 +7565,7 @@
         <v>15</v>
       </c>
       <c r="M134" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -7579,7 +7585,7 @@
         <v>190</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C135">
         <v>4.7</v>
@@ -7603,7 +7609,7 @@
         <v>0.7</v>
       </c>
       <c r="J135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K135" t="s">
         <v>14</v>
@@ -7612,7 +7618,7 @@
         <v>15</v>
       </c>
       <c r="M135" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -7632,7 +7638,7 @@
         <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C136">
         <v>4.7</v>
@@ -7656,7 +7662,7 @@
         <v>0.7</v>
       </c>
       <c r="J136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K136" t="s">
         <v>14</v>
@@ -7665,7 +7671,7 @@
         <v>15</v>
       </c>
       <c r="M136" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -7685,7 +7691,7 @@
         <v>190</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C137">
         <v>4.7</v>
@@ -7709,7 +7715,7 @@
         <v>0.8</v>
       </c>
       <c r="J137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K137" t="s">
         <v>14</v>
@@ -7718,7 +7724,7 @@
         <v>15</v>
       </c>
       <c r="M137" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -7738,7 +7744,7 @@
         <v>190</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138">
         <v>4.7</v>
@@ -7762,7 +7768,7 @@
         <v>0.8</v>
       </c>
       <c r="J138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K138" t="s">
         <v>14</v>
@@ -7771,7 +7777,7 @@
         <v>15</v>
       </c>
       <c r="M138" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -7791,7 +7797,7 @@
         <v>190</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C139">
         <v>4.7</v>
@@ -7815,7 +7821,7 @@
         <v>0.8</v>
       </c>
       <c r="J139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K139" t="s">
         <v>14</v>
@@ -7824,7 +7830,7 @@
         <v>15</v>
       </c>
       <c r="M139" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -7844,7 +7850,7 @@
         <v>190</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C140">
         <v>4.7</v>
@@ -7868,7 +7874,7 @@
         <v>0.8</v>
       </c>
       <c r="J140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K140" t="s">
         <v>14</v>
@@ -7877,7 +7883,7 @@
         <v>15</v>
       </c>
       <c r="M140" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -7897,7 +7903,7 @@
         <v>190</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C141">
         <v>4.7</v>
@@ -7921,7 +7927,7 @@
         <v>0.8</v>
       </c>
       <c r="J141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K141" t="s">
         <v>14</v>
@@ -7930,7 +7936,7 @@
         <v>15</v>
       </c>
       <c r="M141" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -7950,7 +7956,7 @@
         <v>190</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C142">
         <v>4.7</v>
@@ -7974,7 +7980,7 @@
         <v>0.8</v>
       </c>
       <c r="J142" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K142" t="s">
         <v>14</v>
@@ -7983,7 +7989,7 @@
         <v>15</v>
       </c>
       <c r="M142" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -8003,7 +8009,7 @@
         <v>190</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C143">
         <v>4.7</v>
@@ -8027,7 +8033,7 @@
         <v>0.8</v>
       </c>
       <c r="J143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K143" t="s">
         <v>14</v>
@@ -8036,7 +8042,7 @@
         <v>15</v>
       </c>
       <c r="M143" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -8056,7 +8062,7 @@
         <v>190</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C144">
         <v>4.7</v>
@@ -8080,7 +8086,7 @@
         <v>0.8</v>
       </c>
       <c r="J144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K144" t="s">
         <v>14</v>
@@ -8089,7 +8095,7 @@
         <v>15</v>
       </c>
       <c r="M144" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -8109,7 +8115,7 @@
         <v>190</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C145">
         <v>4.7</v>
@@ -8133,7 +8139,7 @@
         <v>0.8</v>
       </c>
       <c r="J145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K145" t="s">
         <v>14</v>
@@ -8142,7 +8148,7 @@
         <v>15</v>
       </c>
       <c r="M145" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -8162,7 +8168,7 @@
         <v>190</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C146">
         <v>4.7</v>
@@ -8186,7 +8192,7 @@
         <v>0.8</v>
       </c>
       <c r="J146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K146" t="s">
         <v>14</v>
@@ -8195,7 +8201,7 @@
         <v>15</v>
       </c>
       <c r="M146" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N146">
         <v>1</v>
@@ -8215,7 +8221,7 @@
         <v>190</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C147">
         <v>4.7</v>
@@ -8239,7 +8245,7 @@
         <v>0.8</v>
       </c>
       <c r="J147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K147" t="s">
         <v>14</v>
@@ -8248,7 +8254,7 @@
         <v>15</v>
       </c>
       <c r="M147" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -8268,7 +8274,7 @@
         <v>190</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C148">
         <v>4.7</v>
@@ -8292,7 +8298,7 @@
         <v>0.8</v>
       </c>
       <c r="J148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K148" t="s">
         <v>14</v>
@@ -8301,7 +8307,7 @@
         <v>15</v>
       </c>
       <c r="M148" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -8321,7 +8327,7 @@
         <v>190</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C149">
         <v>4.7</v>
@@ -8345,7 +8351,7 @@
         <v>0.8</v>
       </c>
       <c r="J149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K149" t="s">
         <v>14</v>
@@ -8354,7 +8360,7 @@
         <v>15</v>
       </c>
       <c r="M149" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -8374,7 +8380,7 @@
         <v>190</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150">
         <v>4.7</v>
@@ -8398,7 +8404,7 @@
         <v>0.8</v>
       </c>
       <c r="J150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K150" t="s">
         <v>14</v>
@@ -8407,7 +8413,7 @@
         <v>15</v>
       </c>
       <c r="M150" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -8427,7 +8433,7 @@
         <v>190</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C151">
         <v>4.7</v>
@@ -8451,7 +8457,7 @@
         <v>0.8</v>
       </c>
       <c r="J151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K151" t="s">
         <v>14</v>
@@ -8460,7 +8466,7 @@
         <v>15</v>
       </c>
       <c r="M151" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -8480,7 +8486,7 @@
         <v>190</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C152">
         <v>4.7</v>
@@ -8504,7 +8510,7 @@
         <v>0.9</v>
       </c>
       <c r="J152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K152" t="s">
         <v>14</v>
@@ -8513,7 +8519,7 @@
         <v>15</v>
       </c>
       <c r="M152" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -8533,7 +8539,7 @@
         <v>190</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C153">
         <v>4.7</v>
@@ -8557,7 +8563,7 @@
         <v>0.9</v>
       </c>
       <c r="J153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K153" t="s">
         <v>14</v>
@@ -8566,7 +8572,7 @@
         <v>15</v>
       </c>
       <c r="M153" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -8586,7 +8592,7 @@
         <v>190</v>
       </c>
       <c r="B154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C154">
         <v>4.7</v>
@@ -8610,7 +8616,7 @@
         <v>0.9</v>
       </c>
       <c r="J154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K154" t="s">
         <v>14</v>
@@ -8619,7 +8625,7 @@
         <v>15</v>
       </c>
       <c r="M154" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -8639,7 +8645,7 @@
         <v>190</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C155">
         <v>4.7</v>
@@ -8663,7 +8669,7 @@
         <v>0.9</v>
       </c>
       <c r="J155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K155" t="s">
         <v>14</v>
@@ -8672,7 +8678,7 @@
         <v>15</v>
       </c>
       <c r="M155" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -8692,7 +8698,7 @@
         <v>190</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C156">
         <v>4.7</v>
@@ -8716,7 +8722,7 @@
         <v>0.9</v>
       </c>
       <c r="J156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K156" t="s">
         <v>14</v>
@@ -8725,7 +8731,7 @@
         <v>15</v>
       </c>
       <c r="M156" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -8745,7 +8751,7 @@
         <v>190</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C157">
         <v>4.7</v>
@@ -8769,7 +8775,7 @@
         <v>0.9</v>
       </c>
       <c r="J157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K157" t="s">
         <v>14</v>
@@ -8778,7 +8784,7 @@
         <v>15</v>
       </c>
       <c r="M157" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -8798,7 +8804,7 @@
         <v>190</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C158">
         <v>4.7</v>
@@ -8822,7 +8828,7 @@
         <v>0.9</v>
       </c>
       <c r="J158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
@@ -8831,7 +8837,7 @@
         <v>15</v>
       </c>
       <c r="M158" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -8851,7 +8857,7 @@
         <v>190</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C159">
         <v>4.7</v>
@@ -8875,7 +8881,7 @@
         <v>0.9</v>
       </c>
       <c r="J159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K159" t="s">
         <v>14</v>
@@ -8884,7 +8890,7 @@
         <v>15</v>
       </c>
       <c r="M159" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N159">
         <v>1</v>
@@ -8904,7 +8910,7 @@
         <v>190</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C160">
         <v>4.7</v>
@@ -8928,7 +8934,7 @@
         <v>0.9</v>
       </c>
       <c r="J160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K160" t="s">
         <v>14</v>
@@ -8937,7 +8943,7 @@
         <v>15</v>
       </c>
       <c r="M160" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N160">
         <v>1</v>
@@ -8957,7 +8963,7 @@
         <v>190</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C161">
         <v>4.7</v>
@@ -8981,7 +8987,7 @@
         <v>0.9</v>
       </c>
       <c r="J161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K161" t="s">
         <v>14</v>
@@ -8990,7 +8996,7 @@
         <v>15</v>
       </c>
       <c r="M161" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N161">
         <v>1</v>
@@ -9010,7 +9016,7 @@
         <v>190</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C162">
         <v>4.7</v>
@@ -9034,7 +9040,7 @@
         <v>0.9</v>
       </c>
       <c r="J162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K162" t="s">
         <v>14</v>
@@ -9043,7 +9049,7 @@
         <v>15</v>
       </c>
       <c r="M162" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N162">
         <v>1</v>
@@ -9063,7 +9069,7 @@
         <v>190</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C163">
         <v>4.7</v>
@@ -9087,7 +9093,7 @@
         <v>0.9</v>
       </c>
       <c r="J163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K163" t="s">
         <v>14</v>
@@ -9096,7 +9102,7 @@
         <v>15</v>
       </c>
       <c r="M163" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N163">
         <v>1</v>
@@ -9116,7 +9122,7 @@
         <v>190</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C164">
         <v>4.7</v>
@@ -9140,7 +9146,7 @@
         <v>0.9</v>
       </c>
       <c r="J164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K164" t="s">
         <v>14</v>
@@ -9149,7 +9155,7 @@
         <v>15</v>
       </c>
       <c r="M164" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N164">
         <v>1</v>
@@ -9169,7 +9175,7 @@
         <v>190</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C165">
         <v>4.7</v>
@@ -9193,7 +9199,7 @@
         <v>0.9</v>
       </c>
       <c r="J165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K165" t="s">
         <v>14</v>
@@ -9202,7 +9208,7 @@
         <v>15</v>
       </c>
       <c r="M165" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N165">
         <v>1</v>
@@ -9222,7 +9228,7 @@
         <v>190</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C166">
         <v>4.7</v>
@@ -9246,7 +9252,7 @@
         <v>0.9</v>
       </c>
       <c r="J166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K166" t="s">
         <v>14</v>
@@ -9255,7 +9261,7 @@
         <v>15</v>
       </c>
       <c r="M166" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N166">
         <v>1</v>
@@ -9271,6 +9277,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>